--- a/Test report.xlsx
+++ b/Test report.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Testing\Project\2021.APCS.CS423.GroupG.2-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2867CB2B-9B21-4EC8-A07C-918CB7782D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="PassFail" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Severity" sheetId="2" r:id="rId5"/>
+    <sheet name="PassFail" sheetId="1" r:id="rId1"/>
+    <sheet name="Severity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,42 +187,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -212,7 +240,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -226,6 +260,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -237,27 +272,35 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -267,91 +310,81 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -541,26 +574,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.14"/>
+    <col min="1" max="1" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,545 +610,554 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
       <c r="D2" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="8" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
       <c r="D8" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="15" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="16" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="17" collapsed="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="12">
-        <f t="shared" ref="B44:D44" si="1">SUM(B2:B42)</f>
-        <v>76</v>
+        <f t="shared" ref="B44:D44" si="0">SUM(B2:B42)</f>
+        <v>92</v>
       </c>
       <c r="C44" s="11">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="60.14"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
@@ -1135,48 +1180,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>SUM(C2:F2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" outlineLevel="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1190,32 +1243,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" outlineLevel="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -1225,76 +1278,84 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
-        <f t="shared" ref="G6:G8" si="1">SUM(C6:F6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" outlineLevel="1">
+        <f t="shared" ref="G6:G8" si="0">SUM(C6:F6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" outlineLevel="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" outlineLevel="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10" outlineLevel="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -1308,32 +1369,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" outlineLevel="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="12" outlineLevel="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -1347,32 +1408,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" outlineLevel="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14" outlineLevel="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -1386,32 +1447,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" outlineLevel="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
@@ -1421,13 +1482,13 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
-        <f t="shared" ref="G16:G27" si="2">SUM(C16:F16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" ref="G16:G27" si="1">SUM(C16:F16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
@@ -1437,37 +1498,37 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
@@ -1477,13 +1538,13 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
@@ -1493,13 +1554,13 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1509,37 +1570,37 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
@@ -1549,37 +1610,37 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>27</v>
@@ -1589,132 +1650,132 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" outlineLevel="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E29" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:G36" si="3">SUM(C29:F29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" outlineLevel="1">
+        <f t="shared" ref="G29:G36" si="2">SUM(C29:F29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" outlineLevel="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
@@ -1724,37 +1785,37 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" outlineLevel="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E32" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" outlineLevel="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>35</v>
@@ -1764,13 +1825,13 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" outlineLevel="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>36</v>
@@ -1780,13 +1841,13 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" outlineLevel="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
@@ -1796,13 +1857,13 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" outlineLevel="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>38</v>
@@ -1812,60 +1873,60 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" outlineLevel="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F38" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" ref="G38:G41" si="4">SUM(C38:F38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" outlineLevel="1">
+        <f t="shared" ref="G38:G41" si="3">SUM(C38:F38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>41</v>
@@ -1875,37 +1936,37 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" outlineLevel="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E40" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F40" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" outlineLevel="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>43</v>
@@ -1915,34 +1976,34 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" outlineLevel="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -1951,36 +2012,36 @@
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="11">
-        <f t="shared" ref="C44:G44" si="5">SUM(C2:C43)</f>
+        <f t="shared" ref="C44:G44" si="4">SUM(C2:C43)</f>
         <v>2</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="E44" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A44:B44"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>